--- a/data_5.xlsx
+++ b/data_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,213 +436,373 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>temperature_2m_max (°C)</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>temperature_2m_min (°C)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>apparent_temperature_max (°C)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>apparent_temperature_min (°C)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>sunrise (iso8601)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sunset (iso8601)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>shortwave_radiation_sum (MJ/m²)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>rain_sum (mm)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>snowfall_sum (cm)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>windspeed_10m_max (km/h)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>windgusts_10m_max (km/h)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>winddirection_10m_dominant (°)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>et0_fao_evapotranspiration (mm)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>elevation</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>city</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2018-01-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>29.9</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>26</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>36.3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>31.6</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2018-01-01T05:15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2018-01-01T17:49</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>17.59</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>7.7</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>6.9</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>20.2</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>277</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>3.61</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>su</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2018-01-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>30.6</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>25.7</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>37.7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>31.2</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2018-01-02T05:15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2018-01-02T17:50</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>19.87</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>9.4</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>7.1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>18</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>168</v>
       </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
         <v>4.11</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>su</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2018-01-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>31.8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>25.9</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>40.3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>31.7</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2018-01-03T05:16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2018-01-03T17:50</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>20.44</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>7.8</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>8.1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>21.2</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>125</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>4.23</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>su</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2018-01-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>30.8</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>26</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>39.1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>31.6</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2018-01-04T05:16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2018-01-04T17:50</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>20.44</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>29.7</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>7.2</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
         <v>21.6</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>190</v>
       </c>
-      <c r="J5" t="n">
+      <c r="N5" t="n">
         <v>4.22</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>su</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2018-01-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>30.9</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>25.2</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>37.6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>29.9</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2018-01-05T05:17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2018-01-05T17:51</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>20.1</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>22.5</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>6.9</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>21.2</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
         <v>241</v>
       </c>
-      <c r="J6" t="n">
+      <c r="N6" t="n">
         <v>4.16</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>su</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data_5.xlsx
+++ b/data_5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
